--- a/final_windows_executable/input.xlsx
+++ b/final_windows_executable/input.xlsx
@@ -1479,9 +1479,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/final_windows_executable/input.xlsx
+++ b/final_windows_executable/input.xlsx
@@ -103,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -169,21 +169,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -269,22 +254,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -298,16 +283,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -315,37 +300,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -727,8 +682,8 @@
     <col width="10.125" customWidth="1" style="5" min="5" max="170"/>
     <col width="10.875" customWidth="1" style="5" min="171" max="521"/>
     <col width="11" customWidth="1" style="5" min="522" max="522"/>
-    <col width="10.875" customWidth="1" style="5" min="523" max="534"/>
-    <col width="10.875" customWidth="1" style="5" min="535" max="16384"/>
+    <col width="10.875" customWidth="1" style="5" min="523" max="541"/>
+    <col width="10.875" customWidth="1" style="5" min="542" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
@@ -792,7 +747,7 @@
     <row r="8" ht="44.1" customHeight="1">
       <c r="B8" s="23" t="inlineStr">
         <is>
-          <t>5/77</t>
+          <t>0/77</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
@@ -809,7 +764,7 @@
     <row r="9" ht="44.1" customHeight="1">
       <c r="B9" s="23" t="inlineStr">
         <is>
-          <t>5/72</t>
+          <t>1/72</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
@@ -826,7 +781,7 @@
     <row r="10" ht="44.1" customHeight="1">
       <c r="B10" s="23" t="inlineStr">
         <is>
-          <t>5/10</t>
+          <t>1/10</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
@@ -843,7 +798,7 @@
     <row r="11" ht="44.1" customHeight="1">
       <c r="B11" s="23" t="inlineStr">
         <is>
-          <t>4/28</t>
+          <t>1/28</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
@@ -1186,10 +1141,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
@@ -1325,142 +1280,45 @@
       </c>
     </row>
     <row r="12" ht="23.25" customHeight="1">
-      <c r="B12" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C12" s="24" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/wellintonvieira</t>
-        </is>
-      </c>
-      <c r="D12" s="24" t="inlineStr">
-        <is>
-          <t>Wellinton</t>
-        </is>
-      </c>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="11" t="n"/>
+      <c r="D12" s="11" t="n"/>
     </row>
     <row r="13" ht="23.25" customHeight="1">
-      <c r="B13" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C13" s="24" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/danielmazini</t>
-        </is>
-      </c>
-      <c r="D13" s="24" t="inlineStr">
-        <is>
-          <t>Daniel</t>
-        </is>
-      </c>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="11" t="n"/>
+      <c r="D13" s="11" t="n"/>
     </row>
     <row r="14" ht="23.25" customHeight="1">
-      <c r="B14" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C14" s="24" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/alcparo</t>
-        </is>
-      </c>
-      <c r="D14" s="24" t="inlineStr">
-        <is>
-          <t>Andre Luiz</t>
-        </is>
-      </c>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="11" t="n"/>
+      <c r="D14" s="11" t="n"/>
     </row>
     <row r="15" ht="23.25" customHeight="1">
-      <c r="B15" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C15" s="24" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/alexandrealvares</t>
-        </is>
-      </c>
-      <c r="D15" s="24" t="inlineStr">
-        <is>
-          <t>Alexandre</t>
-        </is>
-      </c>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="11" t="n"/>
+      <c r="D15" s="11" t="n"/>
     </row>
     <row r="16" ht="23.25" customHeight="1">
-      <c r="B16" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C16" s="22" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/mateushbnoel</t>
-        </is>
-      </c>
-      <c r="D16" s="24" t="inlineStr">
-        <is>
-          <t>Mateus</t>
-        </is>
-      </c>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="12" t="n"/>
+      <c r="D16" s="11" t="n"/>
     </row>
     <row r="17" ht="23.25" customHeight="1">
-      <c r="B17" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C17" s="24" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/tamaraf</t>
-        </is>
-      </c>
-      <c r="D17" s="24" t="inlineStr">
-        <is>
-          <t>Tamara Freire R.</t>
-        </is>
-      </c>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="11" t="n"/>
+      <c r="D17" s="11" t="n"/>
     </row>
     <row r="18" ht="23.25" customHeight="1">
-      <c r="B18" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C18" s="24" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/leslie-devost-032615194</t>
-        </is>
-      </c>
-      <c r="D18" s="24" t="inlineStr">
-        <is>
-          <t>Leslie</t>
-        </is>
-      </c>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="11" t="n"/>
+      <c r="D18" s="11" t="n"/>
     </row>
     <row r="19" ht="23.25" customHeight="1">
-      <c r="B19" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C19" s="24" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/alcparo</t>
-        </is>
-      </c>
-      <c r="D19" s="24" t="inlineStr">
-        <is>
-          <t>Andre Luiz</t>
-        </is>
-      </c>
-    </row>
-    <row r="20"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="11" t="n"/>
+      <c r="D19" s="11" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
@@ -1478,15 +1336,6 @@
       <formula>"Não"</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId7"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
--- a/final_windows_executable/input.xlsx
+++ b/final_windows_executable/input.xlsx
@@ -682,8 +682,8 @@
     <col width="10.125" customWidth="1" style="5" min="5" max="170"/>
     <col width="10.875" customWidth="1" style="5" min="171" max="521"/>
     <col width="11" customWidth="1" style="5" min="522" max="522"/>
-    <col width="10.875" customWidth="1" style="5" min="523" max="541"/>
-    <col width="10.875" customWidth="1" style="5" min="542" max="16384"/>
+    <col width="10.875" customWidth="1" style="5" min="523" max="542"/>
+    <col width="10.875" customWidth="1" style="5" min="543" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
@@ -745,68 +745,68 @@
       <c r="E7" s="3" t="n"/>
     </row>
     <row r="8" ht="44.1" customHeight="1">
-      <c r="B8" s="23" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>0/77</t>
         </is>
       </c>
-      <c r="C8" s="22" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/mark/</t>
         </is>
       </c>
-      <c r="D8" s="24" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>Mark</t>
         </is>
       </c>
     </row>
     <row r="9" ht="44.1" customHeight="1">
-      <c r="B9" s="23" t="inlineStr">
-        <is>
-          <t>1/72</t>
-        </is>
-      </c>
-      <c r="C9" s="22" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>0/72</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/timeneon/</t>
         </is>
       </c>
-      <c r="D9" s="24" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>Neon</t>
         </is>
       </c>
     </row>
     <row r="10" ht="44.1" customHeight="1">
-      <c r="B10" s="23" t="inlineStr">
-        <is>
-          <t>1/10</t>
-        </is>
-      </c>
-      <c r="C10" s="22" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>0/10</t>
+        </is>
+      </c>
+      <c r="C10" s="13" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/distrito.me/</t>
         </is>
       </c>
-      <c r="D10" s="24" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>Distrito</t>
         </is>
       </c>
     </row>
     <row r="11" ht="44.1" customHeight="1">
-      <c r="B11" s="23" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>1/28</t>
         </is>
       </c>
-      <c r="C11" s="22" t="inlineStr">
+      <c r="C11" s="13" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/liv-up/</t>
         </is>
       </c>
-      <c r="D11" s="24" t="inlineStr">
+      <c r="D11" s="15" t="inlineStr">
         <is>
           <t>Liv Up</t>
         </is>
@@ -1144,7 +1144,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B10:B11"/>
+      <selection activeCell="B11" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>

--- a/final_windows_executable/input.xlsx
+++ b/final_windows_executable/input.xlsx
@@ -745,68 +745,68 @@
       <c r="E7" s="3" t="n"/>
     </row>
     <row r="8" ht="44.1" customHeight="1">
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>0/77</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="B8" s="23" t="inlineStr">
+        <is>
+          <t>2/77</t>
+        </is>
+      </c>
+      <c r="C8" s="22" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/mark/</t>
         </is>
       </c>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="D8" s="24" t="inlineStr">
         <is>
           <t>Mark</t>
         </is>
       </c>
     </row>
     <row r="9" ht="44.1" customHeight="1">
-      <c r="B9" s="14" t="inlineStr">
-        <is>
-          <t>0/72</t>
-        </is>
-      </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="B9" s="23" t="inlineStr">
+        <is>
+          <t>3/72</t>
+        </is>
+      </c>
+      <c r="C9" s="22" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/timeneon/</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
+      <c r="D9" s="24" t="inlineStr">
         <is>
           <t>Neon</t>
         </is>
       </c>
     </row>
     <row r="10" ht="44.1" customHeight="1">
-      <c r="B10" s="14" t="inlineStr">
-        <is>
-          <t>0/10</t>
-        </is>
-      </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="B10" s="23" t="inlineStr">
+        <is>
+          <t>3/10</t>
+        </is>
+      </c>
+      <c r="C10" s="22" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/distrito.me/</t>
         </is>
       </c>
-      <c r="D10" s="15" t="inlineStr">
+      <c r="D10" s="24" t="inlineStr">
         <is>
           <t>Distrito</t>
         </is>
       </c>
     </row>
     <row r="11" ht="44.1" customHeight="1">
-      <c r="B11" s="14" t="inlineStr">
-        <is>
-          <t>1/28</t>
-        </is>
-      </c>
-      <c r="C11" s="13" t="inlineStr">
+      <c r="B11" s="23" t="inlineStr">
+        <is>
+          <t>3/28</t>
+        </is>
+      </c>
+      <c r="C11" s="22" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/liv-up/</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr">
+      <c r="D11" s="24" t="inlineStr">
         <is>
           <t>Liv Up</t>
         </is>

--- a/final_windows_executable/input.xlsx
+++ b/final_windows_executable/input.xlsx
@@ -682,8 +682,8 @@
     <col width="10.125" customWidth="1" style="5" min="5" max="170"/>
     <col width="10.875" customWidth="1" style="5" min="171" max="521"/>
     <col width="11" customWidth="1" style="5" min="522" max="522"/>
-    <col width="10.875" customWidth="1" style="5" min="523" max="542"/>
-    <col width="10.875" customWidth="1" style="5" min="543" max="16384"/>
+    <col width="10.875" customWidth="1" style="5" min="523" max="543"/>
+    <col width="10.875" customWidth="1" style="5" min="544" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
@@ -745,68 +745,68 @@
       <c r="E7" s="3" t="n"/>
     </row>
     <row r="8" ht="44.1" customHeight="1">
-      <c r="B8" s="23" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>2/77</t>
         </is>
       </c>
-      <c r="C8" s="22" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/mark/</t>
         </is>
       </c>
-      <c r="D8" s="24" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>Mark</t>
         </is>
       </c>
     </row>
     <row r="9" ht="44.1" customHeight="1">
-      <c r="B9" s="23" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>3/72</t>
         </is>
       </c>
-      <c r="C9" s="22" t="inlineStr">
+      <c r="C9" s="13" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/timeneon/</t>
         </is>
       </c>
-      <c r="D9" s="24" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>Neon</t>
         </is>
       </c>
     </row>
     <row r="10" ht="44.1" customHeight="1">
-      <c r="B10" s="23" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>3/10</t>
         </is>
       </c>
-      <c r="C10" s="22" t="inlineStr">
+      <c r="C10" s="13" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/distrito.me/</t>
         </is>
       </c>
-      <c r="D10" s="24" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>Distrito</t>
         </is>
       </c>
     </row>
     <row r="11" ht="44.1" customHeight="1">
-      <c r="B11" s="23" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>3/28</t>
         </is>
       </c>
-      <c r="C11" s="22" t="inlineStr">
+      <c r="C11" s="13" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/liv-up/</t>
         </is>
       </c>
-      <c r="D11" s="24" t="inlineStr">
+      <c r="D11" s="15" t="inlineStr">
         <is>
           <t>Liv Up</t>
         </is>
@@ -1144,7 +1144,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B8:B11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>

--- a/final_windows_executable/input.xlsx
+++ b/final_windows_executable/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8745" yWindow="16080" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8745" yWindow="16080" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empresas" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -83,6 +83,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="18"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="12"/>
+      <u val="single"/>
     </font>
     <font/>
     <font>
@@ -227,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -258,9 +264,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -283,16 +286,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -669,7 +682,7 @@
   </sheetPr>
   <dimension ref="B2:AL20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
@@ -682,42 +695,42 @@
     <col width="10.125" customWidth="1" style="5" min="5" max="170"/>
     <col width="10.875" customWidth="1" style="5" min="171" max="521"/>
     <col width="11" customWidth="1" style="5" min="522" max="522"/>
-    <col width="10.875" customWidth="1" style="5" min="523" max="543"/>
-    <col width="10.875" customWidth="1" style="5" min="544" max="16384"/>
+    <col width="10.875" customWidth="1" style="5" min="523" max="542"/>
+    <col width="10.875" customWidth="1" style="5" min="543" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="B2" s="20" t="inlineStr">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>TABELA DE LINKS DE EMPRESAS DO LINKEDIN</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="18" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="17" t="n"/>
       <c r="E2" s="7" t="n"/>
     </row>
     <row r="3" ht="17.1" customHeight="1">
       <c r="B3" s="4" t="n"/>
     </row>
     <row r="4" ht="30.95" customHeight="1">
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>Instruções:</t>
         </is>
       </c>
-      <c r="C4" s="17" t="n"/>
-      <c r="D4" s="18" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="17" t="n"/>
     </row>
     <row r="5" ht="104.1" customHeight="1">
-      <c r="B5" s="19" t="inlineStr">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">    1. Insira o novo link na primeira linha vazia da tabela, na coluna de "Link da página da empresa".
     2. Não se preocupe nem com o estilo, nem com os valores das células da nova linha. Tudo isso será arrumado pelo programa.
     3. Salve e feche o Excel.</t>
         </is>
       </c>
-      <c r="C5" s="17" t="n"/>
-      <c r="D5" s="18" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="17" t="n"/>
     </row>
     <row r="6" ht="17.1" customHeight="1">
       <c r="B6" s="4" t="n"/>
@@ -745,68 +758,68 @@
       <c r="E7" s="3" t="n"/>
     </row>
     <row r="8" ht="44.1" customHeight="1">
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>2/77</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="B8" s="26" t="inlineStr">
+        <is>
+          <t>0/77</t>
+        </is>
+      </c>
+      <c r="C8" s="25" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/mark/</t>
         </is>
       </c>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="D8" s="27" t="inlineStr">
         <is>
           <t>Mark</t>
         </is>
       </c>
     </row>
     <row r="9" ht="44.1" customHeight="1">
-      <c r="B9" s="14" t="inlineStr">
-        <is>
-          <t>3/72</t>
-        </is>
-      </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="B9" s="26" t="inlineStr">
+        <is>
+          <t>0/72</t>
+        </is>
+      </c>
+      <c r="C9" s="25" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/timeneon/</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
+      <c r="D9" s="27" t="inlineStr">
         <is>
           <t>Neon</t>
         </is>
       </c>
     </row>
     <row r="10" ht="44.1" customHeight="1">
-      <c r="B10" s="14" t="inlineStr">
-        <is>
-          <t>3/10</t>
-        </is>
-      </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="B10" s="26" t="inlineStr">
+        <is>
+          <t>1/10</t>
+        </is>
+      </c>
+      <c r="C10" s="25" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/distrito.me/</t>
         </is>
       </c>
-      <c r="D10" s="15" t="inlineStr">
+      <c r="D10" s="27" t="inlineStr">
         <is>
           <t>Distrito</t>
         </is>
       </c>
     </row>
     <row r="11" ht="44.1" customHeight="1">
-      <c r="B11" s="14" t="inlineStr">
-        <is>
-          <t>3/28</t>
-        </is>
-      </c>
-      <c r="C11" s="13" t="inlineStr">
+      <c r="B11" s="26" t="inlineStr">
+        <is>
+          <t>1/28</t>
+        </is>
+      </c>
+      <c r="C11" s="25" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/liv-up/</t>
         </is>
       </c>
-      <c r="D11" s="15" t="inlineStr">
+      <c r="D11" s="27" t="inlineStr">
         <is>
           <t>Liv Up</t>
         </is>
@@ -1141,10 +1154,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
@@ -1156,13 +1169,13 @@
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="B2" s="20" t="inlineStr">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>TABELA DE LINKS DE PERFIS DO LINKEDIN</t>
         </is>
       </c>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="18" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="17" t="n"/>
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="B3" s="4" t="n"/>
@@ -1170,24 +1183,24 @@
       <c r="D3" s="5" t="n"/>
     </row>
     <row r="4" ht="30.75" customHeight="1">
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>Instruções:</t>
         </is>
       </c>
-      <c r="C4" s="17" t="n"/>
-      <c r="D4" s="18" t="n"/>
+      <c r="C4" s="16" t="n"/>
+      <c r="D4" s="17" t="n"/>
     </row>
     <row r="5" ht="104.25" customHeight="1">
-      <c r="B5" s="19" t="inlineStr">
+      <c r="B5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">    1. Insira o novo link na primeira linha vazia da tabela, na coluna de "Link de perfil".
     2. Não se preocupe nem com o estilo, nem com os valores das células da nova linha. Tudo isso será arrumado pelo programa.
     3. Salve e feche o Excel.</t>
         </is>
       </c>
-      <c r="C5" s="17" t="n"/>
-      <c r="D5" s="18" t="n"/>
+      <c r="C5" s="16" t="n"/>
+      <c r="D5" s="17" t="n"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="B6" s="4" t="n"/>
@@ -1212,112 +1225,525 @@
       </c>
     </row>
     <row r="8" ht="43.5" customHeight="1">
-      <c r="B8" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C8" s="22" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/patricksigrist</t>
-        </is>
-      </c>
-      <c r="D8" s="24" t="inlineStr">
-        <is>
-          <t>Patrick</t>
-        </is>
-      </c>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/victor-santos</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="n"/>
     </row>
     <row r="9" ht="43.5" customHeight="1">
-      <c r="B9" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C9" s="22" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/stephanie-fernandes-scortecci-2ab066117</t>
-        </is>
-      </c>
-      <c r="D9" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stephanie </t>
-        </is>
-      </c>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/stella-brant-08057940</t>
+        </is>
+      </c>
+      <c r="D9" s="14" t="n"/>
     </row>
     <row r="10" ht="43.5" customHeight="1">
-      <c r="B10" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C10" s="22" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/rodrigo-salem-703824115</t>
-        </is>
-      </c>
-      <c r="D10" s="24" t="inlineStr">
-        <is>
-          <t>Rodrigo</t>
-        </is>
-      </c>
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/henrique-dorizzotto-castellani-70839956</t>
+        </is>
+      </c>
+      <c r="D10" s="14" t="n"/>
     </row>
     <row r="11" ht="43.5" customHeight="1">
-      <c r="B11" s="23" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="C11" s="22" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/hellen-neves-138048123</t>
-        </is>
-      </c>
-      <c r="D11" s="24" t="inlineStr">
-        <is>
-          <t>Hellen</t>
-        </is>
-      </c>
+      <c r="B11" s="13" t="n"/>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/caroline-takita-levy-03b8454</t>
+        </is>
+      </c>
+      <c r="D11" s="14" t="n"/>
     </row>
     <row r="12" ht="23.25" customHeight="1">
       <c r="B12" s="10" t="n"/>
-      <c r="C12" s="11" t="n"/>
+      <c r="C12" s="21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gabriel-pasmanik-eisencraft-94686275</t>
+        </is>
+      </c>
       <c r="D12" s="11" t="n"/>
     </row>
     <row r="13" ht="23.25" customHeight="1">
       <c r="B13" s="10" t="n"/>
-      <c r="C13" s="11" t="n"/>
+      <c r="C13" s="21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/joanacesconetto</t>
+        </is>
+      </c>
       <c r="D13" s="11" t="n"/>
     </row>
     <row r="14" ht="23.25" customHeight="1">
       <c r="B14" s="10" t="n"/>
-      <c r="C14" s="11" t="n"/>
+      <c r="C14" s="21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vitoria-rosa</t>
+        </is>
+      </c>
       <c r="D14" s="11" t="n"/>
     </row>
     <row r="15" ht="23.25" customHeight="1">
       <c r="B15" s="10" t="n"/>
-      <c r="C15" s="11" t="n"/>
+      <c r="C15" s="21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/talita-slaviero-b02095142</t>
+        </is>
+      </c>
       <c r="D15" s="11" t="n"/>
     </row>
     <row r="16" ht="23.25" customHeight="1">
       <c r="B16" s="10" t="n"/>
-      <c r="C16" s="12" t="n"/>
+      <c r="C16" s="22" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/luizarakaki</t>
+        </is>
+      </c>
       <c r="D16" s="11" t="n"/>
     </row>
     <row r="17" ht="23.25" customHeight="1">
       <c r="B17" s="10" t="n"/>
-      <c r="C17" s="11" t="n"/>
+      <c r="C17" s="21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rafaelgibelli</t>
+        </is>
+      </c>
       <c r="D17" s="11" t="n"/>
     </row>
     <row r="18" ht="23.25" customHeight="1">
       <c r="B18" s="10" t="n"/>
-      <c r="C18" s="11" t="n"/>
+      <c r="C18" s="21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/danielparedesd</t>
+        </is>
+      </c>
       <c r="D18" s="11" t="n"/>
     </row>
     <row r="19" ht="23.25" customHeight="1">
       <c r="B19" s="10" t="n"/>
-      <c r="C19" s="11" t="n"/>
+      <c r="C19" s="21" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/livia-malouf</t>
+        </is>
+      </c>
       <c r="D19" s="11" t="n"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/santiagofossatti</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/beatrizguarezi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/dianamedeiros</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bernardoruas</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rodrigo-gerber</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/thiago-fernandes-dantas-vasconcellos-b16a16134</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marcelocanovas</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gustavo-velloso-verginelli-444323b</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/cintya-rasa-900064114</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gustavo-mesquita-1166256</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/fspina</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/daniel-quandt-a49985110</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/laura-sue-vicentini-78190b152</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gusaraujo</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/acacia-morena-9b5ab1a9</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gustavo-gierun-4490948a</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/victor-harano</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bruno-izzo-1ab6a1146</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/liliannatal</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/giulianaparo</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marco-antonio-de-senna-lamolha</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/pacagnella</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mauromonteiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/fbcunha</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/vanda-nonato-26a1a08b</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marcosrmachado</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/nathalia-souza-aa8734188</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/pedroconrade</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gislainezaramella</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mariana-nicolopulos</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/juliano-tenorio-scapin-4370b433</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rafaelvilarinhobernardes</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/norbertogiangrande</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/kaiene-silva</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/brunopardo</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marceloamoraes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/fernandocanicais</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/brunaffmarques</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/iolanda-d-86749388</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/serachung</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/caueos</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/travisfoxhall</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/luiza-mendonca-miranda</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/carol-oksman-70594915</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/michelfarah14</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marquescarol</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/julia-girotto-2b0a40159</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/leandro-marques-642930135</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/patricksigrist</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/stephanie-fernandes-scortecci-2ab066117</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rodrigo-salem-703824115</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/hellen-neves-138048123</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/wellintonvieira</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/danielmazini</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alcparo</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alexandrealvares</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mateushbnoel</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/tamaraf</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" s="23" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/leslie-devost-032615194</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1337,5 +1763,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>